--- a/biology/Médecine/Protecteur_gastrique/Protecteur_gastrique.xlsx
+++ b/biology/Médecine/Protecteur_gastrique/Protecteur_gastrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un protecteur gastrique est en général une substance médicamenteuse dont le rôle ou l'une des propriétés est d'empêcher les lésions de la muqueuse de l'estomac. La muqueuse stomachale dispose normalement d'une protection propre qui est détériorée par certaines bactéries dont Helicobacter pylori, et par certains médicaments dont les anti-inflammatoires. Les symptômes sont ceux d'une gastrite ou d'un ulcère de l'estomac.  
 </t>
@@ -511,7 +523,9 @@
           <t>Catégories de protecteurs gastriques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut diviser les protecteurs gastriques en plusieurs catégories :
 Ceux qui neutralisent l'acide gastrique : les anti-acides
@@ -546,7 +560,9 @@
           <t>Utilisation des protecteurs gastriques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protecteurs gastriques sont souvent utilisés dans le traitement des pathologies suivantes :
 les remontées acides (reflux gastro-œsophagien),
